--- a/res/bangDG.xlsx
+++ b/res/bangDG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20201\Project1\20201-quan-ly-thu-vien\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583C187-5FE2-4CBF-A12F-16D3A245DCEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6019F4FA-FB6C-4566-9446-2DD40243AAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,10 +107,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,21 +394,21 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="41.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -436,11 +436,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
